--- a/Cement.xlsx
+++ b/Cement.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F32859-0CFA-420A-ABED-9E7533C2B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1ADB50-4A2F-416C-B307-A6D6C8B82BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9CE45032-CA80-406C-8E2D-7FA8B504F785}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9CE45032-CA80-406C-8E2D-7FA8B504F785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Scenario</t>
   </si>
@@ -68,12 +69,45 @@
   <si>
     <t>Metric</t>
   </si>
+  <si>
+    <t>Cement production contributes about 7% of global CO₂ emissions, making it one of the largest single industrial sources. Emissions come from both process emissions during clinker production and fuel combustion for heating kilns. While efficiency gains and fuel switching have helped, global emissions are falling by only 1.2% per year, far from the 4–5% annual reduction needed for a Net Zero by 2050 pathway. Deep decarbonization will require deploying carbon capture, using low-clinker cements, and shifting to alternative fuels such as biomass or hydrogen.</t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>IEA, 2023</t>
+  </si>
+  <si>
+    <t>Share of electricity in thermal energy use</t>
+  </si>
+  <si>
+    <t>Share of Bioenergy with CCUS in thermal energy use</t>
+  </si>
+  <si>
+    <t>Share of fossils with CCUS in thermal energy use</t>
+  </si>
+  <si>
+    <t>Share of Bioenergy without CCUS in thermal energy use</t>
+  </si>
+  <si>
+    <t>Kiln thermal energy intensity (GJ per ton of clinker)</t>
+  </si>
+  <si>
+    <t>Share of near zero clinker emission clinker production</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +131,37 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +180,14 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +219,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +298,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DABCFD-C8D0-44DB-89E3-BCEB1A4E767C}">
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1902,4 +2020,274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFE673-7631-456E-8371-12123E848483}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="26">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="25">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="34">
+        <f>AVERAGE(D4,F4)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="34">
+        <f>AVERAGE(D5,F5)</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.31</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="34">
+        <f>AVERAGE(D6,F6)</f>
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.19</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="38">
+        <v>3.6</v>
+      </c>
+      <c r="C7" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="38">
+        <f>AVERAGE(D7,F7)</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="F7" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="E8" s="30">
+        <f>AVERAGE(D8,F8)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.93</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>